--- a/P11/docs/MASS_Scrum.xlsx
+++ b/P11/docs/MASS_Scrum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/school/UTA/classes/CSE 1325/assignments/cse1325/P10/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/school/UTA/classes/CSE 1325/assignments/cse1325/P11/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1EC478-A1FC-0D4E-A502-607CB187B8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A326CCB-7306-EC46-A0DD-80396309CC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="158">
   <si>
     <t>Product Name:</t>
   </si>
@@ -596,9 +596,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>--&gt; Add tasks to complete each feature for this sprint</t>
-  </si>
-  <si>
     <t>Rescuers</t>
   </si>
   <si>
@@ -652,6 +649,9 @@
   </si>
   <si>
     <t>Completed Day 6</t>
+  </si>
+  <si>
+    <t>Finished in Sprint 5</t>
   </si>
 </sst>
 </file>
@@ -949,7 +949,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -973,6 +972,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -985,7 +985,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2759,7 +2759,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -2777,10 +2777,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3524,8 +3524,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ98"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="C40" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I45" sqref="I44:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -3567,7 +3567,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -3613,7 +3613,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
@@ -3621,7 +3621,7 @@
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="5">
         <v>1001964490</v>
@@ -3960,7 +3960,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>31</v>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>36</v>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>36</v>
@@ -4059,13 +4059,13 @@
         <v>1</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>36</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J27" s="18" t="s">
         <v>45</v>
@@ -4092,7 +4092,7 @@
         <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>31</v>
@@ -4125,7 +4125,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>31</v>
@@ -4158,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H30" s="22" t="s">
         <v>31</v>
@@ -4191,7 +4191,7 @@
         <v>2</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H31" s="22" t="s">
         <v>31</v>
@@ -4224,7 +4224,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>36</v>
@@ -4257,7 +4257,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" s="22" t="s">
         <v>36</v>
@@ -4290,7 +4290,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>36</v>
@@ -4323,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H35" s="17" t="s">
         <v>74</v>
@@ -4356,7 +4356,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H36" s="17" t="s">
         <v>74</v>
@@ -4389,7 +4389,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H37" s="17" t="s">
         <v>82</v>
@@ -4422,7 +4422,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H38" s="17" t="s">
         <v>82</v>
@@ -4455,7 +4455,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H39" s="17" t="s">
         <v>82</v>
@@ -4488,7 +4488,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H40" s="22" t="s">
         <v>36</v>
@@ -6574,7 +6574,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="22" t="s">
         <v>36</v>
@@ -6607,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H43" s="22" t="s">
         <v>107</v>
@@ -6637,7 +6637,9 @@
         <v>13</v>
       </c>
       <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="H44" s="17" t="s">
         <v>107</v>
       </c>
@@ -6666,7 +6668,9 @@
         <v>8</v>
       </c>
       <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="H45" s="17" t="s">
         <v>36</v>
       </c>
@@ -7742,13 +7746,13 @@
       <c r="B17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
@@ -7758,12 +7762,12 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
@@ -7773,12 +7777,12 @@
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
@@ -7788,12 +7792,12 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E20" s="41"/>
+        <v>150</v>
+      </c>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
@@ -7801,7 +7805,7 @@
       </c>
       <c r="B21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -7809,7 +7813,7 @@
       </c>
       <c r="B22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
@@ -7817,7 +7821,7 @@
       </c>
       <c r="B23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
@@ -7825,7 +7829,7 @@
       </c>
       <c r="B24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
@@ -7833,7 +7837,7 @@
       </c>
       <c r="B25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
@@ -7841,7 +7845,7 @@
       </c>
       <c r="B26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
@@ -7849,7 +7853,7 @@
       </c>
       <c r="B27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
@@ -7857,7 +7861,7 @@
       </c>
       <c r="B28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
@@ -7865,7 +7869,7 @@
       </c>
       <c r="B29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
@@ -7873,7 +7877,7 @@
       </c>
       <c r="B30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
@@ -7881,7 +7885,7 @@
       </c>
       <c r="B31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
@@ -7889,7 +7893,7 @@
       </c>
       <c r="B32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
@@ -7897,7 +7901,7 @@
       </c>
       <c r="B33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="41"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
@@ -7905,7 +7909,7 @@
       </c>
       <c r="B34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
@@ -7913,7 +7917,7 @@
       </c>
       <c r="B35" s="39"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
@@ -7921,7 +7925,7 @@
       </c>
       <c r="B36" s="39"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
@@ -7929,7 +7933,7 @@
       </c>
       <c r="B37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="41"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
@@ -7937,7 +7941,7 @@
       </c>
       <c r="B38" s="39"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
@@ -7945,7 +7949,7 @@
       </c>
       <c r="B39" s="39"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="41"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
@@ -7953,7 +7957,7 @@
       </c>
       <c r="B40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
@@ -7961,7 +7965,7 @@
       </c>
       <c r="B41" s="39"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -7969,7 +7973,7 @@
       </c>
       <c r="B42" s="39"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
@@ -7977,7 +7981,7 @@
       </c>
       <c r="B43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="41"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
@@ -7985,7 +7989,7 @@
       </c>
       <c r="B44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
@@ -7993,7 +7997,7 @@
       </c>
       <c r="B45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
@@ -8001,7 +8005,7 @@
       </c>
       <c r="B46" s="39"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
@@ -8009,7 +8013,7 @@
       </c>
       <c r="B47" s="39"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
@@ -8017,7 +8021,7 @@
       </c>
       <c r="B48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
@@ -8025,7 +8029,7 @@
       </c>
       <c r="B49" s="39"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
@@ -8033,7 +8037,7 @@
       </c>
       <c r="B50" s="39"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
@@ -8041,7 +8045,7 @@
       </c>
       <c r="B51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -8049,7 +8053,7 @@
       </c>
       <c r="B52" s="39"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
@@ -8057,7 +8061,7 @@
       </c>
       <c r="B53" s="39"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
+      <c r="E53" s="40"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
@@ -8065,7 +8069,7 @@
       </c>
       <c r="B54" s="39"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
@@ -8073,7 +8077,7 @@
       </c>
       <c r="B55" s="39"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="41"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
@@ -8081,7 +8085,7 @@
       </c>
       <c r="B56" s="39"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
@@ -8089,7 +8093,7 @@
       </c>
       <c r="B57" s="39"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
@@ -8097,7 +8101,7 @@
       </c>
       <c r="B58" s="39"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
@@ -8105,7 +8109,7 @@
       </c>
       <c r="B59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="41"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
@@ -8113,7 +8117,7 @@
       </c>
       <c r="B60" s="39"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="41"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
@@ -8121,7 +8125,7 @@
       </c>
       <c r="B61" s="39"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
@@ -8129,7 +8133,7 @@
       </c>
       <c r="B62" s="39"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="41"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
@@ -8137,7 +8141,7 @@
       </c>
       <c r="B63" s="39"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="41"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
@@ -8145,7 +8149,7 @@
       </c>
       <c r="B64" s="39"/>
       <c r="D64" s="39"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
@@ -8153,7 +8157,7 @@
       </c>
       <c r="B65" s="39"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="41"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
@@ -8161,7 +8165,7 @@
       </c>
       <c r="B66" s="39"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
@@ -8169,7 +8173,7 @@
       </c>
       <c r="B67" s="39"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
@@ -8177,7 +8181,7 @@
       </c>
       <c r="B68" s="39"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="41"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
@@ -8185,7 +8189,7 @@
       </c>
       <c r="B69" s="39"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
@@ -8193,7 +8197,7 @@
       </c>
       <c r="B70" s="39"/>
       <c r="D70" s="39"/>
-      <c r="E70" s="41"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
@@ -8201,7 +8205,7 @@
       </c>
       <c r="B71" s="39"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
@@ -8209,7 +8213,7 @@
       </c>
       <c r="B72" s="39"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
@@ -8217,7 +8221,7 @@
       </c>
       <c r="B73" s="39"/>
       <c r="D73" s="39"/>
-      <c r="E73" s="41"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
@@ -8225,7 +8229,7 @@
       </c>
       <c r="B74" s="39"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
@@ -8233,7 +8237,7 @@
       </c>
       <c r="B75" s="39"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="41"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
@@ -8241,7 +8245,7 @@
       </c>
       <c r="B76" s="39"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="41"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
@@ -8249,7 +8253,7 @@
       </c>
       <c r="B77" s="39"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="41"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
@@ -8257,7 +8261,7 @@
       </c>
       <c r="B78" s="39"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
@@ -8265,7 +8269,7 @@
       </c>
       <c r="B79" s="39"/>
       <c r="D79" s="39"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="40"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
@@ -8273,7 +8277,7 @@
       </c>
       <c r="B80" s="39"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
@@ -8281,7 +8285,7 @@
       </c>
       <c r="B81" s="39"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="40"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
@@ -8289,7 +8293,7 @@
       </c>
       <c r="B82" s="39"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
@@ -8297,7 +8301,7 @@
       </c>
       <c r="B83" s="39"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="40"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
@@ -8305,7 +8309,7 @@
       </c>
       <c r="B84" s="39"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="40"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
@@ -8313,7 +8317,7 @@
       </c>
       <c r="B85" s="39"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="40"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
@@ -8321,7 +8325,7 @@
       </c>
       <c r="B86" s="39"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="41"/>
+      <c r="E86" s="40"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
@@ -8329,7 +8333,7 @@
       </c>
       <c r="B87" s="39"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
@@ -8337,7 +8341,7 @@
       </c>
       <c r="B88" s="39"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="41"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
@@ -8345,7 +8349,7 @@
       </c>
       <c r="B89" s="39"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="41"/>
+      <c r="E89" s="40"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
@@ -8353,7 +8357,7 @@
       </c>
       <c r="B90" s="39"/>
       <c r="D90" s="39"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="40"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
@@ -8361,7 +8365,7 @@
       </c>
       <c r="B91" s="39"/>
       <c r="D91" s="39"/>
-      <c r="E91" s="41"/>
+      <c r="E91" s="40"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
@@ -8369,7 +8373,7 @@
       </c>
       <c r="B92" s="39"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="41"/>
+      <c r="E92" s="40"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
@@ -8377,7 +8381,7 @@
       </c>
       <c r="B93" s="39"/>
       <c r="D93" s="39"/>
-      <c r="E93" s="41"/>
+      <c r="E93" s="40"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
@@ -8385,7 +8389,7 @@
       </c>
       <c r="B94" s="39"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="41"/>
+      <c r="E94" s="40"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
@@ -8393,7 +8397,7 @@
       </c>
       <c r="B95" s="39"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="41"/>
+      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
@@ -8401,7 +8405,7 @@
       </c>
       <c r="B96" s="39"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
@@ -8409,7 +8413,7 @@
       </c>
       <c r="B97" s="39"/>
       <c r="D97" s="39"/>
-      <c r="E97" s="41"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
@@ -8417,7 +8421,7 @@
       </c>
       <c r="B98" s="39"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="41"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
@@ -8425,7 +8429,7 @@
       </c>
       <c r="B99" s="39"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="40"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
@@ -8433,7 +8437,7 @@
       </c>
       <c r="B100" s="39"/>
       <c r="D100" s="39"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="4">
@@ -8761,106 +8765,106 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" ht="14">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" ht="14">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5" ht="14">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" ht="16">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5" ht="16">
       <c r="A22">
         <v>6</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="44" t="s">
         <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5" ht="14">
       <c r="A23">
         <v>7</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="43" t="s">
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
@@ -8868,7 +8872,7 @@
       </c>
       <c r="B24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
@@ -8876,7 +8880,7 @@
       </c>
       <c r="B25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
@@ -8884,7 +8888,7 @@
       </c>
       <c r="B26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
@@ -8892,7 +8896,7 @@
       </c>
       <c r="B27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
@@ -8900,7 +8904,7 @@
       </c>
       <c r="B28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
@@ -8908,7 +8912,7 @@
       </c>
       <c r="B29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
@@ -8916,7 +8920,7 @@
       </c>
       <c r="B30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
@@ -8924,7 +8928,7 @@
       </c>
       <c r="B31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
@@ -8932,7 +8936,7 @@
       </c>
       <c r="B32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
@@ -8940,7 +8944,7 @@
       </c>
       <c r="B33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="41"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
@@ -8948,7 +8952,7 @@
       </c>
       <c r="B34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
@@ -8956,7 +8960,7 @@
       </c>
       <c r="B35" s="39"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
@@ -8964,7 +8968,7 @@
       </c>
       <c r="B36" s="39"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
@@ -8972,7 +8976,7 @@
       </c>
       <c r="B37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="41"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
@@ -8980,7 +8984,7 @@
       </c>
       <c r="B38" s="39"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
@@ -8988,7 +8992,7 @@
       </c>
       <c r="B39" s="39"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="41"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
@@ -8996,7 +9000,7 @@
       </c>
       <c r="B40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
@@ -9004,7 +9008,7 @@
       </c>
       <c r="B41" s="39"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -9012,7 +9016,7 @@
       </c>
       <c r="B42" s="39"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
@@ -9020,7 +9024,7 @@
       </c>
       <c r="B43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="41"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
@@ -9028,7 +9032,7 @@
       </c>
       <c r="B44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
@@ -9036,7 +9040,7 @@
       </c>
       <c r="B45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
@@ -9044,7 +9048,7 @@
       </c>
       <c r="B46" s="39"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
@@ -9052,7 +9056,7 @@
       </c>
       <c r="B47" s="39"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
@@ -9060,7 +9064,7 @@
       </c>
       <c r="B48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
@@ -9068,7 +9072,7 @@
       </c>
       <c r="B49" s="39"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
@@ -9076,7 +9080,7 @@
       </c>
       <c r="B50" s="39"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
@@ -9084,7 +9088,7 @@
       </c>
       <c r="B51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -9092,7 +9096,7 @@
       </c>
       <c r="B52" s="39"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
@@ -9100,7 +9104,7 @@
       </c>
       <c r="B53" s="39"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
+      <c r="E53" s="40"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
@@ -9108,7 +9112,7 @@
       </c>
       <c r="B54" s="39"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
@@ -9116,7 +9120,7 @@
       </c>
       <c r="B55" s="39"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="41"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
@@ -9124,7 +9128,7 @@
       </c>
       <c r="B56" s="39"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
@@ -9132,7 +9136,7 @@
       </c>
       <c r="B57" s="39"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
@@ -9140,7 +9144,7 @@
       </c>
       <c r="B58" s="39"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
@@ -9148,7 +9152,7 @@
       </c>
       <c r="B59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="41"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
@@ -9156,7 +9160,7 @@
       </c>
       <c r="B60" s="39"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="41"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
@@ -9164,7 +9168,7 @@
       </c>
       <c r="B61" s="39"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
@@ -9172,7 +9176,7 @@
       </c>
       <c r="B62" s="39"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="41"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
@@ -9180,7 +9184,7 @@
       </c>
       <c r="B63" s="39"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="41"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
@@ -9188,7 +9192,7 @@
       </c>
       <c r="B64" s="39"/>
       <c r="D64" s="39"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
@@ -9196,7 +9200,7 @@
       </c>
       <c r="B65" s="39"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="41"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
@@ -9204,7 +9208,7 @@
       </c>
       <c r="B66" s="39"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
@@ -9212,7 +9216,7 @@
       </c>
       <c r="B67" s="39"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
@@ -9220,7 +9224,7 @@
       </c>
       <c r="B68" s="39"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="41"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
@@ -9228,7 +9232,7 @@
       </c>
       <c r="B69" s="39"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
@@ -9236,7 +9240,7 @@
       </c>
       <c r="B70" s="39"/>
       <c r="D70" s="39"/>
-      <c r="E70" s="41"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
@@ -9244,7 +9248,7 @@
       </c>
       <c r="B71" s="39"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
@@ -9252,7 +9256,7 @@
       </c>
       <c r="B72" s="39"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
@@ -9260,7 +9264,7 @@
       </c>
       <c r="B73" s="39"/>
       <c r="D73" s="39"/>
-      <c r="E73" s="41"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
@@ -9268,7 +9272,7 @@
       </c>
       <c r="B74" s="39"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
@@ -9276,7 +9280,7 @@
       </c>
       <c r="B75" s="39"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="41"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
@@ -9284,7 +9288,7 @@
       </c>
       <c r="B76" s="39"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="41"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
@@ -9292,7 +9296,7 @@
       </c>
       <c r="B77" s="39"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="41"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
@@ -9300,7 +9304,7 @@
       </c>
       <c r="B78" s="39"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
@@ -9308,7 +9312,7 @@
       </c>
       <c r="B79" s="39"/>
       <c r="D79" s="39"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="40"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
@@ -9316,7 +9320,7 @@
       </c>
       <c r="B80" s="39"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
@@ -9324,7 +9328,7 @@
       </c>
       <c r="B81" s="39"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="40"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
@@ -9332,7 +9336,7 @@
       </c>
       <c r="B82" s="39"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
@@ -9340,7 +9344,7 @@
       </c>
       <c r="B83" s="39"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="40"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
@@ -9348,7 +9352,7 @@
       </c>
       <c r="B84" s="39"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="40"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
@@ -9356,7 +9360,7 @@
       </c>
       <c r="B85" s="39"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="40"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
@@ -9364,7 +9368,7 @@
       </c>
       <c r="B86" s="39"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="41"/>
+      <c r="E86" s="40"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
@@ -9372,7 +9376,7 @@
       </c>
       <c r="B87" s="39"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
@@ -9380,7 +9384,7 @@
       </c>
       <c r="B88" s="39"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="41"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
@@ -9388,7 +9392,7 @@
       </c>
       <c r="B89" s="39"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="41"/>
+      <c r="E89" s="40"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
@@ -9396,7 +9400,7 @@
       </c>
       <c r="B90" s="39"/>
       <c r="D90" s="39"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="40"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
@@ -9404,7 +9408,7 @@
       </c>
       <c r="B91" s="39"/>
       <c r="D91" s="39"/>
-      <c r="E91" s="41"/>
+      <c r="E91" s="40"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
@@ -9412,7 +9416,7 @@
       </c>
       <c r="B92" s="39"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="41"/>
+      <c r="E92" s="40"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
@@ -9420,7 +9424,7 @@
       </c>
       <c r="B93" s="39"/>
       <c r="D93" s="39"/>
-      <c r="E93" s="41"/>
+      <c r="E93" s="40"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
@@ -9428,7 +9432,7 @@
       </c>
       <c r="B94" s="39"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="41"/>
+      <c r="E94" s="40"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
@@ -9436,7 +9440,7 @@
       </c>
       <c r="B95" s="39"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="41"/>
+      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
@@ -9444,7 +9448,7 @@
       </c>
       <c r="B96" s="39"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
@@ -9452,7 +9456,7 @@
       </c>
       <c r="B97" s="39"/>
       <c r="D97" s="39"/>
-      <c r="E97" s="41"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
@@ -9460,7 +9464,7 @@
       </c>
       <c r="B98" s="39"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="41"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
@@ -9468,7 +9472,7 @@
       </c>
       <c r="B99" s="39"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="40"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
@@ -9476,7 +9480,7 @@
       </c>
       <c r="B100" s="39"/>
       <c r="D100" s="39"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -9800,76 +9804,76 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="40"/>
     </row>
     <row r="18" spans="1:5" ht="14">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" ht="14">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5" ht="14">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" ht="14">
       <c r="A21">
         <v>5</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D21" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -9877,7 +9881,7 @@
       </c>
       <c r="B22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
@@ -9885,7 +9889,7 @@
       </c>
       <c r="B23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
@@ -9893,7 +9897,7 @@
       </c>
       <c r="B24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
@@ -9901,7 +9905,7 @@
       </c>
       <c r="B25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
@@ -9909,7 +9913,7 @@
       </c>
       <c r="B26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
@@ -9917,7 +9921,7 @@
       </c>
       <c r="B27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
@@ -9925,7 +9929,7 @@
       </c>
       <c r="B28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
@@ -9933,7 +9937,7 @@
       </c>
       <c r="B29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
@@ -9941,7 +9945,7 @@
       </c>
       <c r="B30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
@@ -9949,7 +9953,7 @@
       </c>
       <c r="B31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
@@ -9957,7 +9961,7 @@
       </c>
       <c r="B32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
@@ -9965,7 +9969,7 @@
       </c>
       <c r="B33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="41"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
@@ -9973,7 +9977,7 @@
       </c>
       <c r="B34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
@@ -9981,7 +9985,7 @@
       </c>
       <c r="B35" s="39"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
@@ -9989,7 +9993,7 @@
       </c>
       <c r="B36" s="39"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
@@ -9997,7 +10001,7 @@
       </c>
       <c r="B37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="41"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
@@ -10005,7 +10009,7 @@
       </c>
       <c r="B38" s="39"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
@@ -10013,7 +10017,7 @@
       </c>
       <c r="B39" s="39"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="41"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
@@ -10021,7 +10025,7 @@
       </c>
       <c r="B40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
@@ -10029,7 +10033,7 @@
       </c>
       <c r="B41" s="39"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -10037,7 +10041,7 @@
       </c>
       <c r="B42" s="39"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
@@ -10045,7 +10049,7 @@
       </c>
       <c r="B43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="41"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
@@ -10053,7 +10057,7 @@
       </c>
       <c r="B44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
@@ -10061,7 +10065,7 @@
       </c>
       <c r="B45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
@@ -10069,7 +10073,7 @@
       </c>
       <c r="B46" s="39"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
@@ -10077,7 +10081,7 @@
       </c>
       <c r="B47" s="39"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
@@ -10085,7 +10089,7 @@
       </c>
       <c r="B48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
@@ -10093,7 +10097,7 @@
       </c>
       <c r="B49" s="39"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
@@ -10101,7 +10105,7 @@
       </c>
       <c r="B50" s="39"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
@@ -10109,7 +10113,7 @@
       </c>
       <c r="B51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -10117,7 +10121,7 @@
       </c>
       <c r="B52" s="39"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
@@ -10125,7 +10129,7 @@
       </c>
       <c r="B53" s="39"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
+      <c r="E53" s="40"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
@@ -10133,7 +10137,7 @@
       </c>
       <c r="B54" s="39"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
@@ -10141,7 +10145,7 @@
       </c>
       <c r="B55" s="39"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="41"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
@@ -10149,7 +10153,7 @@
       </c>
       <c r="B56" s="39"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
@@ -10157,7 +10161,7 @@
       </c>
       <c r="B57" s="39"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
@@ -10165,7 +10169,7 @@
       </c>
       <c r="B58" s="39"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
@@ -10173,7 +10177,7 @@
       </c>
       <c r="B59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="41"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
@@ -10181,7 +10185,7 @@
       </c>
       <c r="B60" s="39"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="41"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
@@ -10189,7 +10193,7 @@
       </c>
       <c r="B61" s="39"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
@@ -10197,7 +10201,7 @@
       </c>
       <c r="B62" s="39"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="41"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
@@ -10205,7 +10209,7 @@
       </c>
       <c r="B63" s="39"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="41"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
@@ -10213,7 +10217,7 @@
       </c>
       <c r="B64" s="39"/>
       <c r="D64" s="39"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
@@ -10221,7 +10225,7 @@
       </c>
       <c r="B65" s="39"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="41"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
@@ -10229,7 +10233,7 @@
       </c>
       <c r="B66" s="39"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
@@ -10237,7 +10241,7 @@
       </c>
       <c r="B67" s="39"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
@@ -10245,7 +10249,7 @@
       </c>
       <c r="B68" s="39"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="41"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
@@ -10253,7 +10257,7 @@
       </c>
       <c r="B69" s="39"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
@@ -10261,7 +10265,7 @@
       </c>
       <c r="B70" s="39"/>
       <c r="D70" s="39"/>
-      <c r="E70" s="41"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
@@ -10269,7 +10273,7 @@
       </c>
       <c r="B71" s="39"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
@@ -10277,7 +10281,7 @@
       </c>
       <c r="B72" s="39"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
@@ -10285,7 +10289,7 @@
       </c>
       <c r="B73" s="39"/>
       <c r="D73" s="39"/>
-      <c r="E73" s="41"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
@@ -10293,7 +10297,7 @@
       </c>
       <c r="B74" s="39"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
@@ -10301,7 +10305,7 @@
       </c>
       <c r="B75" s="39"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="41"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
@@ -10309,7 +10313,7 @@
       </c>
       <c r="B76" s="39"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="41"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
@@ -10317,7 +10321,7 @@
       </c>
       <c r="B77" s="39"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="41"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
@@ -10325,7 +10329,7 @@
       </c>
       <c r="B78" s="39"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
@@ -10333,7 +10337,7 @@
       </c>
       <c r="B79" s="39"/>
       <c r="D79" s="39"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="40"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
@@ -10341,7 +10345,7 @@
       </c>
       <c r="B80" s="39"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
@@ -10349,7 +10353,7 @@
       </c>
       <c r="B81" s="39"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="40"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
@@ -10357,7 +10361,7 @@
       </c>
       <c r="B82" s="39"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
@@ -10365,7 +10369,7 @@
       </c>
       <c r="B83" s="39"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="40"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
@@ -10373,7 +10377,7 @@
       </c>
       <c r="B84" s="39"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="40"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
@@ -10381,7 +10385,7 @@
       </c>
       <c r="B85" s="39"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="40"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
@@ -10389,7 +10393,7 @@
       </c>
       <c r="B86" s="39"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="41"/>
+      <c r="E86" s="40"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
@@ -10397,7 +10401,7 @@
       </c>
       <c r="B87" s="39"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
@@ -10405,7 +10409,7 @@
       </c>
       <c r="B88" s="39"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="41"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
@@ -10413,7 +10417,7 @@
       </c>
       <c r="B89" s="39"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="41"/>
+      <c r="E89" s="40"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
@@ -10421,7 +10425,7 @@
       </c>
       <c r="B90" s="39"/>
       <c r="D90" s="39"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="40"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
@@ -10429,7 +10433,7 @@
       </c>
       <c r="B91" s="39"/>
       <c r="D91" s="39"/>
-      <c r="E91" s="41"/>
+      <c r="E91" s="40"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
@@ -10437,7 +10441,7 @@
       </c>
       <c r="B92" s="39"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="41"/>
+      <c r="E92" s="40"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
@@ -10445,7 +10449,7 @@
       </c>
       <c r="B93" s="39"/>
       <c r="D93" s="39"/>
-      <c r="E93" s="41"/>
+      <c r="E93" s="40"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
@@ -10453,7 +10457,7 @@
       </c>
       <c r="B94" s="39"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="41"/>
+      <c r="E94" s="40"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
@@ -10461,7 +10465,7 @@
       </c>
       <c r="B95" s="39"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="41"/>
+      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
@@ -10469,7 +10473,7 @@
       </c>
       <c r="B96" s="39"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
@@ -10477,7 +10481,7 @@
       </c>
       <c r="B97" s="39"/>
       <c r="D97" s="39"/>
-      <c r="E97" s="41"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
@@ -10485,7 +10489,7 @@
       </c>
       <c r="B98" s="39"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="41"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
@@ -10493,7 +10497,7 @@
       </c>
       <c r="B99" s="39"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="40"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
@@ -10501,7 +10505,7 @@
       </c>
       <c r="B100" s="39"/>
       <c r="D100" s="39"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -10555,7 +10559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -10829,60 +10833,60 @@
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D17" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="41" t="s">
-        <v>156</v>
+      <c r="E17" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D18" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="41" t="s">
-        <v>155</v>
+      <c r="E18" s="40" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>148</v>
-      </c>
-      <c r="D19" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="41" t="s">
-        <v>157</v>
+      <c r="E19" s="40" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="41"/>
+      <c r="B20" s="43"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
@@ -10890,7 +10894,7 @@
       </c>
       <c r="B21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
@@ -10898,7 +10902,7 @@
       </c>
       <c r="B22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
@@ -10906,7 +10910,7 @@
       </c>
       <c r="B23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
@@ -10914,7 +10918,7 @@
       </c>
       <c r="B24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
@@ -10922,7 +10926,7 @@
       </c>
       <c r="B25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
@@ -10930,7 +10934,7 @@
       </c>
       <c r="B26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
@@ -10938,7 +10942,7 @@
       </c>
       <c r="B27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
@@ -10946,7 +10950,7 @@
       </c>
       <c r="B28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
@@ -10954,7 +10958,7 @@
       </c>
       <c r="B29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
@@ -10962,7 +10966,7 @@
       </c>
       <c r="B30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
@@ -10970,7 +10974,7 @@
       </c>
       <c r="B31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
@@ -10978,7 +10982,7 @@
       </c>
       <c r="B32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
@@ -10986,7 +10990,7 @@
       </c>
       <c r="B33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="41"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
@@ -10994,7 +10998,7 @@
       </c>
       <c r="B34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
@@ -11002,7 +11006,7 @@
       </c>
       <c r="B35" s="39"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
@@ -11010,7 +11014,7 @@
       </c>
       <c r="B36" s="39"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
@@ -11018,7 +11022,7 @@
       </c>
       <c r="B37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="41"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
@@ -11026,7 +11030,7 @@
       </c>
       <c r="B38" s="39"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
@@ -11034,7 +11038,7 @@
       </c>
       <c r="B39" s="39"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="41"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
@@ -11042,7 +11046,7 @@
       </c>
       <c r="B40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
@@ -11050,7 +11054,7 @@
       </c>
       <c r="B41" s="39"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
@@ -11058,7 +11062,7 @@
       </c>
       <c r="B42" s="39"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
@@ -11066,7 +11070,7 @@
       </c>
       <c r="B43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="41"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
@@ -11074,7 +11078,7 @@
       </c>
       <c r="B44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
@@ -11082,7 +11086,7 @@
       </c>
       <c r="B45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
@@ -11090,7 +11094,7 @@
       </c>
       <c r="B46" s="39"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
@@ -11098,7 +11102,7 @@
       </c>
       <c r="B47" s="39"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
@@ -11106,7 +11110,7 @@
       </c>
       <c r="B48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
@@ -11114,7 +11118,7 @@
       </c>
       <c r="B49" s="39"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
@@ -11122,7 +11126,7 @@
       </c>
       <c r="B50" s="39"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
@@ -11130,7 +11134,7 @@
       </c>
       <c r="B51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -11138,7 +11142,7 @@
       </c>
       <c r="B52" s="39"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
@@ -11146,7 +11150,7 @@
       </c>
       <c r="B53" s="39"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
+      <c r="E53" s="40"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
@@ -11154,7 +11158,7 @@
       </c>
       <c r="B54" s="39"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
@@ -11162,7 +11166,7 @@
       </c>
       <c r="B55" s="39"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="41"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
@@ -11170,7 +11174,7 @@
       </c>
       <c r="B56" s="39"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
@@ -11178,7 +11182,7 @@
       </c>
       <c r="B57" s="39"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
@@ -11186,7 +11190,7 @@
       </c>
       <c r="B58" s="39"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
@@ -11194,7 +11198,7 @@
       </c>
       <c r="B59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="41"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
@@ -11202,7 +11206,7 @@
       </c>
       <c r="B60" s="39"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="41"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
@@ -11210,7 +11214,7 @@
       </c>
       <c r="B61" s="39"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
@@ -11218,7 +11222,7 @@
       </c>
       <c r="B62" s="39"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="41"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
@@ -11226,7 +11230,7 @@
       </c>
       <c r="B63" s="39"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="41"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
@@ -11234,7 +11238,7 @@
       </c>
       <c r="B64" s="39"/>
       <c r="D64" s="39"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
@@ -11242,7 +11246,7 @@
       </c>
       <c r="B65" s="39"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="41"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
@@ -11250,7 +11254,7 @@
       </c>
       <c r="B66" s="39"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
@@ -11258,7 +11262,7 @@
       </c>
       <c r="B67" s="39"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
@@ -11266,7 +11270,7 @@
       </c>
       <c r="B68" s="39"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="41"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
@@ -11274,7 +11278,7 @@
       </c>
       <c r="B69" s="39"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
@@ -11282,7 +11286,7 @@
       </c>
       <c r="B70" s="39"/>
       <c r="D70" s="39"/>
-      <c r="E70" s="41"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
@@ -11290,7 +11294,7 @@
       </c>
       <c r="B71" s="39"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
@@ -11298,7 +11302,7 @@
       </c>
       <c r="B72" s="39"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
@@ -11306,7 +11310,7 @@
       </c>
       <c r="B73" s="39"/>
       <c r="D73" s="39"/>
-      <c r="E73" s="41"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
@@ -11314,7 +11318,7 @@
       </c>
       <c r="B74" s="39"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
@@ -11322,7 +11326,7 @@
       </c>
       <c r="B75" s="39"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="41"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
@@ -11330,7 +11334,7 @@
       </c>
       <c r="B76" s="39"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="41"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
@@ -11338,7 +11342,7 @@
       </c>
       <c r="B77" s="39"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="41"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
@@ -11346,7 +11350,7 @@
       </c>
       <c r="B78" s="39"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
@@ -11354,7 +11358,7 @@
       </c>
       <c r="B79" s="39"/>
       <c r="D79" s="39"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="40"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
@@ -11362,7 +11366,7 @@
       </c>
       <c r="B80" s="39"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
@@ -11370,7 +11374,7 @@
       </c>
       <c r="B81" s="39"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="40"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
@@ -11378,7 +11382,7 @@
       </c>
       <c r="B82" s="39"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
@@ -11386,7 +11390,7 @@
       </c>
       <c r="B83" s="39"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="40"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
@@ -11394,7 +11398,7 @@
       </c>
       <c r="B84" s="39"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="40"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
@@ -11402,7 +11406,7 @@
       </c>
       <c r="B85" s="39"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="40"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
@@ -11410,7 +11414,7 @@
       </c>
       <c r="B86" s="39"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="41"/>
+      <c r="E86" s="40"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
@@ -11418,7 +11422,7 @@
       </c>
       <c r="B87" s="39"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
@@ -11426,7 +11430,7 @@
       </c>
       <c r="B88" s="39"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="41"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
@@ -11434,7 +11438,7 @@
       </c>
       <c r="B89" s="39"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="41"/>
+      <c r="E89" s="40"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
@@ -11442,7 +11446,7 @@
       </c>
       <c r="B90" s="39"/>
       <c r="D90" s="39"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="40"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
@@ -11450,7 +11454,7 @@
       </c>
       <c r="B91" s="39"/>
       <c r="D91" s="39"/>
-      <c r="E91" s="41"/>
+      <c r="E91" s="40"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
@@ -11458,7 +11462,7 @@
       </c>
       <c r="B92" s="39"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="41"/>
+      <c r="E92" s="40"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
@@ -11466,7 +11470,7 @@
       </c>
       <c r="B93" s="39"/>
       <c r="D93" s="39"/>
-      <c r="E93" s="41"/>
+      <c r="E93" s="40"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
@@ -11474,7 +11478,7 @@
       </c>
       <c r="B94" s="39"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="41"/>
+      <c r="E94" s="40"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
@@ -11482,7 +11486,7 @@
       </c>
       <c r="B95" s="39"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="41"/>
+      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
@@ -11490,7 +11494,7 @@
       </c>
       <c r="B96" s="39"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
@@ -11498,7 +11502,7 @@
       </c>
       <c r="B97" s="39"/>
       <c r="D97" s="39"/>
-      <c r="E97" s="41"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
@@ -11506,7 +11510,7 @@
       </c>
       <c r="B98" s="39"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="41"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
@@ -11514,7 +11518,7 @@
       </c>
       <c r="B99" s="39"/>
       <c r="D99" s="39"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="40"/>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
@@ -11522,7 +11526,7 @@
       </c>
       <c r="B100" s="39"/>
       <c r="D100" s="39"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -11576,8 +11580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AMJ100"/>
   <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
@@ -11682,7 +11686,7 @@
       </c>
       <c r="B7" s="31">
         <f>COUNTA(D17:D995)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="31"/>
@@ -11700,8 +11704,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="31">
-        <f>COUNTIF(E$17:E$995, "Completed Day 1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -11787,11 +11790,10 @@
       </c>
       <c r="B13" s="31">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="31">
         <v>1</v>
-      </c>
-      <c r="C13" s="31">
-        <f>COUNTIF(E$17:E$995, "Completed Day 6")</f>
-        <v>0</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -11805,7 +11807,7 @@
       </c>
       <c r="B14" s="31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="31">
         <f>COUNTIF(E$17:E$995, "Completed Day 7")</f>
@@ -11847,687 +11849,690 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="14">
       <c r="A17">
         <v>1</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="D17" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" ht="28">
       <c r="A18">
         <v>2</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="41"/>
+      <c r="B18" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="43"/>
       <c r="D19" s="39"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="40"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>4</v>
-      </c>
-      <c r="B20" s="39"/>
+        <v>5</v>
+      </c>
+      <c r="B20" s="54"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" s="39"/>
       <c r="D21" s="39"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="39"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" s="39"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B24" s="39"/>
       <c r="D24" s="39"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="40"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" s="39"/>
       <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26" s="39"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="39"/>
       <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="40"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" s="39"/>
       <c r="D28" s="39"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="40"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29" s="39"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="40"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B30" s="39"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="40"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" s="39"/>
       <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="40"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" s="39"/>
       <c r="D32" s="39"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B33" s="39"/>
       <c r="D33" s="39"/>
-      <c r="E33" s="41"/>
+      <c r="E33" s="40"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B34" s="39"/>
       <c r="D34" s="39"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B35" s="39"/>
       <c r="D35" s="39"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="40"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" s="39"/>
       <c r="D36" s="39"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="40"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" s="39"/>
       <c r="D37" s="39"/>
-      <c r="E37" s="41"/>
+      <c r="E37" s="40"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38" s="39"/>
       <c r="D38" s="39"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="40"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39" s="39"/>
       <c r="D39" s="39"/>
-      <c r="E39" s="41"/>
+      <c r="E39" s="40"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="39"/>
       <c r="D40" s="39"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="40"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="39"/>
       <c r="D41" s="39"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="40"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" s="39"/>
       <c r="D42" s="39"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="40"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" s="39"/>
       <c r="D43" s="39"/>
-      <c r="E43" s="41"/>
+      <c r="E43" s="40"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B44" s="39"/>
       <c r="D44" s="39"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="40"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B45" s="39"/>
       <c r="D45" s="39"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="40"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B46" s="39"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="40"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" s="39"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="40"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48" s="39"/>
       <c r="D48" s="39"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="40"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B49" s="39"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="40"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B50" s="39"/>
       <c r="D50" s="39"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B51" s="39"/>
       <c r="D51" s="39"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B52" s="39"/>
       <c r="D52" s="39"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B53" s="39"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="41"/>
+      <c r="E53" s="40"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B54" s="39"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B55" s="39"/>
       <c r="D55" s="39"/>
-      <c r="E55" s="41"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B56" s="39"/>
       <c r="D56" s="39"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B57" s="39"/>
       <c r="D57" s="39"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B58" s="39"/>
       <c r="D58" s="39"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B59" s="39"/>
       <c r="D59" s="39"/>
-      <c r="E59" s="41"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B60" s="39"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="41"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B61" s="39"/>
       <c r="D61" s="39"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B62" s="39"/>
       <c r="D62" s="39"/>
-      <c r="E62" s="41"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B63" s="39"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="41"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B64" s="39"/>
       <c r="D64" s="39"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B65" s="39"/>
       <c r="D65" s="39"/>
-      <c r="E65" s="41"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B66" s="39"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B67" s="39"/>
       <c r="D67" s="39"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B68" s="39"/>
       <c r="D68" s="39"/>
-      <c r="E68" s="41"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B69" s="39"/>
       <c r="D69" s="39"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B70" s="39"/>
       <c r="D70" s="39"/>
-      <c r="E70" s="41"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B71" s="39"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B72" s="39"/>
       <c r="D72" s="39"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="40"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" s="39"/>
       <c r="D73" s="39"/>
-      <c r="E73" s="41"/>
+      <c r="E73" s="40"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B74" s="39"/>
       <c r="D74" s="39"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B75" s="39"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="41"/>
+      <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B76" s="39"/>
       <c r="D76" s="39"/>
-      <c r="E76" s="41"/>
+      <c r="E76" s="40"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B77" s="39"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="41"/>
+      <c r="E77" s="40"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B78" s="39"/>
       <c r="D78" s="39"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="40"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B79" s="39"/>
       <c r="D79" s="39"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="40"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B80" s="39"/>
       <c r="D80" s="39"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B81" s="39"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="40"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B82" s="39"/>
       <c r="D82" s="39"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="40"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B83" s="39"/>
       <c r="D83" s="39"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="40"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B84" s="39"/>
       <c r="D84" s="39"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="40"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B85" s="39"/>
       <c r="D85" s="39"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="40"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B86" s="39"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="41"/>
+      <c r="E86" s="40"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B87" s="39"/>
       <c r="D87" s="39"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="40"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B88" s="39"/>
       <c r="D88" s="39"/>
-      <c r="E88" s="41"/>
+      <c r="E88" s="40"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B89" s="39"/>
       <c r="D89" s="39"/>
-      <c r="E89" s="41"/>
+      <c r="E89" s="40"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B90" s="39"/>
       <c r="D90" s="39"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="40"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B91" s="39"/>
       <c r="D91" s="39"/>
-      <c r="E91" s="41"/>
+      <c r="E91" s="40"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B92" s="39"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="41"/>
+      <c r="E92" s="40"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B93" s="39"/>
       <c r="D93" s="39"/>
-      <c r="E93" s="41"/>
+      <c r="E93" s="40"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B94" s="39"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="41"/>
+      <c r="E94" s="40"/>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B95" s="39"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="41"/>
+      <c r="E95" s="40"/>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B96" s="39"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="40"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B97" s="39"/>
       <c r="D97" s="39"/>
-      <c r="E97" s="41"/>
+      <c r="E97" s="40"/>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B98" s="39"/>
       <c r="D98" s="39"/>
-      <c r="E98" s="41"/>
+      <c r="E98" s="40"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>83</v>
-      </c>
-      <c r="B99" s="39"/>
+        <v>84</v>
+      </c>
       <c r="D99" s="39"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="40"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100">
-        <v>84</v>
-      </c>
-      <c r="B100" s="39"/>
       <c r="D100" s="39"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A100" xr:uid="{00000000-0002-0000-0500-000000000000}">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " sqref="C17:C100" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Select Feature ID from Product Backlog" prompt="Exactly ONE team member may be responsible for any task, and they will receive grade credit for their work._x000a__x000a_If you have more than one person on your team, each member MUST select their initials for each task the agree to perform. Use this to ensure that " sqref="C21:C100" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12539,7 +12544,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D18:D100" xr:uid="{00000000-0002-0000-0500-000005000000}">
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task Description" prompt="Select a Feature ID to the left. Then, in this column, list each discrete task needed to implement that feature._x000a__x000a_Example tasks might be &quot;create the Foo class&quot;, &quot;add the Bar method to the (existing) Qux class&quot;, &quot;Find icons for the task bar&quot;, &quot;Update the m" sqref="D19:D100" xr:uid="{00000000-0002-0000-0500-000005000000}">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Task ID" prompt="This is just an arbitrary unique (per sprint) integer assigned to a task, used by the team to refer to that task. " sqref="A17:A99" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12561,7 +12570,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>B17:B100</xm:sqref>
+          <xm:sqref>B20:B98</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
